--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Gibson.Spring.012721.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Gibson.Spring.012721.xlsx_with_dialog_acts.xlsx
@@ -585,12 +585,12 @@
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -737,12 +737,12 @@
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -813,12 +813,12 @@
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1041,12 +1041,12 @@
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1193,12 +1193,12 @@
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1383,12 +1383,12 @@
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1459,12 +1459,12 @@
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1725,12 +1725,12 @@
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1839,12 +1839,12 @@
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2295,12 +2295,12 @@
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2409,12 +2409,12 @@
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2599,12 +2599,12 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2713,12 +2713,12 @@
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3017,12 +3017,12 @@
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3131,12 +3131,12 @@
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3283,12 +3283,12 @@
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3591,12 +3591,12 @@
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3743,12 +3743,12 @@
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3895,12 +3895,12 @@
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4009,12 +4009,12 @@
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4769,12 +4769,12 @@
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4807,12 +4807,12 @@
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5035,12 +5035,12 @@
       <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5149,12 +5149,12 @@
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5187,12 +5187,12 @@
       <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5643,12 +5643,12 @@
       <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5719,12 +5719,12 @@
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5795,12 +5795,12 @@
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5871,12 +5871,12 @@
       <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5947,12 +5947,12 @@
       <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -6327,12 +6327,12 @@
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7163,12 +7163,12 @@
       <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7619,12 +7619,12 @@
       <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8041,12 +8041,12 @@
       <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8079,12 +8079,12 @@
       <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8231,12 +8231,12 @@
       <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8653,12 +8653,12 @@
       <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8691,12 +8691,12 @@
       <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8957,12 +8957,12 @@
       <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9337,12 +9337,12 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9375,12 +9375,12 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9413,12 +9413,12 @@
       <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9527,12 +9527,12 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9793,12 +9793,12 @@
       <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9907,12 +9907,12 @@
       <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10287,12 +10287,12 @@
       <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -10629,12 +10629,12 @@
       <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11389,12 +11389,12 @@
       <c r="H288" t="inlineStr"/>
       <c r="I288" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11465,12 +11465,12 @@
       <c r="H290" t="inlineStr"/>
       <c r="I290" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -11925,12 +11925,12 @@
       <c r="H302" t="inlineStr"/>
       <c r="I302" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12191,12 +12191,12 @@
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12229,12 +12229,12 @@
       <c r="H310" t="inlineStr"/>
       <c r="I310" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12267,12 +12267,12 @@
       <c r="H311" t="inlineStr"/>
       <c r="I311" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12381,12 +12381,12 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12761,12 +12761,12 @@
       <c r="H324" t="inlineStr"/>
       <c r="I324" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12837,12 +12837,12 @@
       <c r="H326" t="inlineStr"/>
       <c r="I326" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -13103,12 +13103,12 @@
       <c r="H333" t="inlineStr"/>
       <c r="I333" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14433,12 +14433,12 @@
       <c r="H368" t="inlineStr"/>
       <c r="I368" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J368" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14471,12 +14471,12 @@
       </c>
       <c r="I369" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J369" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -14661,12 +14661,12 @@
       </c>
       <c r="I374" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J374" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15193,12 +15193,12 @@
       <c r="H388" t="inlineStr"/>
       <c r="I388" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J388" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15915,12 +15915,12 @@
       <c r="H407" t="inlineStr"/>
       <c r="I407" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J407" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16295,12 +16295,12 @@
       <c r="H417" t="inlineStr"/>
       <c r="I417" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J417" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16485,12 +16485,12 @@
       <c r="H422" t="inlineStr"/>
       <c r="I422" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16941,12 +16941,12 @@
       <c r="H434" t="inlineStr"/>
       <c r="I434" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J434" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -17359,12 +17359,12 @@
       <c r="H445" t="inlineStr"/>
       <c r="I445" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J445" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17435,12 +17435,12 @@
       <c r="H447" t="inlineStr"/>
       <c r="I447" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J447" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17473,12 +17473,12 @@
       <c r="H448" t="inlineStr"/>
       <c r="I448" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J448" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -18005,12 +18005,12 @@
       <c r="H462" t="inlineStr"/>
       <c r="I462" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J462" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18271,12 +18271,12 @@
       <c r="H469" t="inlineStr"/>
       <c r="I469" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J469" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18613,12 +18613,12 @@
       <c r="H478" t="inlineStr"/>
       <c r="I478" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J478" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18731,12 +18731,12 @@
       <c r="H481" t="inlineStr"/>
       <c r="I481" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J481" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -18773,12 +18773,12 @@
       </c>
       <c r="I482" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J482" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18811,12 +18811,12 @@
       <c r="H483" t="inlineStr"/>
       <c r="I483" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J483" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18849,12 +18849,12 @@
       <c r="H484" t="inlineStr"/>
       <c r="I484" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J484" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18891,12 +18891,12 @@
       </c>
       <c r="I485" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J485" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -18929,12 +18929,12 @@
       <c r="H486" t="inlineStr"/>
       <c r="I486" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J486" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -19199,12 +19199,12 @@
       <c r="H493" t="inlineStr"/>
       <c r="I493" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J493" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19275,12 +19275,12 @@
       <c r="H495" t="inlineStr"/>
       <c r="I495" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J495" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19355,12 +19355,12 @@
       </c>
       <c r="I497" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J497" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -19625,12 +19625,12 @@
       <c r="H504" t="inlineStr"/>
       <c r="I504" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J504" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -19705,12 +19705,12 @@
       <c r="H506" t="inlineStr"/>
       <c r="I506" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J506" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19781,12 +19781,12 @@
       <c r="H508" t="inlineStr"/>
       <c r="I508" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J508" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -19895,12 +19895,12 @@
       <c r="H511" t="inlineStr"/>
       <c r="I511" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J511" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20161,12 +20161,12 @@
       <c r="H518" t="inlineStr"/>
       <c r="I518" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J518" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -20313,12 +20313,12 @@
       <c r="H522" t="inlineStr"/>
       <c r="I522" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J522" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20427,12 +20427,12 @@
       <c r="H525" t="inlineStr"/>
       <c r="I525" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J525" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20579,12 +20579,12 @@
       <c r="H529" t="inlineStr"/>
       <c r="I529" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J529" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
